--- a/PrathyushaKodali/inputs.xlsx
+++ b/PrathyushaKodali/inputs.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prathyusha\Desktop\Fall Semester\Project NLP\PrathyushaKodali\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8993F450-FC22-4E5C-80F8-F90F037696EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772D0A4A-FFDF-4A4F-9F4D-B34FDCD43458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="13" xr2:uid="{237EE611-CB6D-497E-9AB2-83162A320D63}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="11" xr2:uid="{237EE611-CB6D-497E-9AB2-83162A320D63}"/>
   </bookViews>
   <sheets>
     <sheet name="template_1" sheetId="12" r:id="rId1"/>
     <sheet name="human_category" sheetId="13" r:id="rId2"/>
     <sheet name="names" sheetId="2" r:id="rId3"/>
     <sheet name="template_3" sheetId="1" r:id="rId4"/>
-    <sheet name="item_rent" sheetId="14" r:id="rId5"/>
-    <sheet name="template_5" sheetId="3" r:id="rId6"/>
-    <sheet name="template_6" sheetId="4" r:id="rId7"/>
-    <sheet name="template_7" sheetId="5" r:id="rId8"/>
-    <sheet name="template_8" sheetId="6" r:id="rId9"/>
-    <sheet name="template_9" sheetId="7" r:id="rId10"/>
-    <sheet name="template_10" sheetId="8" r:id="rId11"/>
-    <sheet name="template_11" sheetId="9" r:id="rId12"/>
-    <sheet name="template_12" sheetId="10" r:id="rId13"/>
-    <sheet name="template_13" sheetId="11" r:id="rId14"/>
+    <sheet name="template_5" sheetId="3" r:id="rId5"/>
+    <sheet name="template_6" sheetId="4" r:id="rId6"/>
+    <sheet name="template_7" sheetId="5" r:id="rId7"/>
+    <sheet name="template_8" sheetId="6" r:id="rId8"/>
+    <sheet name="template_9" sheetId="7" r:id="rId9"/>
+    <sheet name="template_10" sheetId="8" r:id="rId10"/>
+    <sheet name="template_11" sheetId="9" r:id="rId11"/>
+    <sheet name="template_12" sheetId="10" r:id="rId12"/>
+    <sheet name="template_13" sheetId="11" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">template_3!$A$1:$B$1</definedName>
@@ -50,10 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="676">
-  <si>
-    <t>Year</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="817">
   <si>
     <t>Robin</t>
   </si>
@@ -223,111 +219,6 @@
     <t>handful</t>
   </si>
   <si>
-    <t xml:space="preserve"> platterful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kitchenful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pocketful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spoonful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bottleful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> glassful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> plateful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mouthful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tumblerful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> shelfful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tableful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> scoopful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> trunkful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> teacupful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> roomful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sacksful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pipeful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rackful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cageful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dishful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bowlful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> palmful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pageful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> forkful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bagful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> trayful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> potful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> panful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tubful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mugful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> capful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jugful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> boxful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> carful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hatful</t>
-  </si>
-  <si>
     <t>armful</t>
   </si>
   <si>
@@ -1102,9 +993,6 @@
     <t>architects</t>
   </si>
   <si>
-    <t>actresses</t>
-  </si>
-  <si>
     <t>high school students</t>
   </si>
   <si>
@@ -1408,9 +1296,6 @@
     <t>blanket</t>
   </si>
   <si>
-    <t>Rent</t>
-  </si>
-  <si>
     <t>invention of printing press</t>
   </si>
   <si>
@@ -1426,9 +1311,6 @@
     <t>invention of radio</t>
   </si>
   <si>
-    <t>invention of television</t>
-  </si>
-  <si>
     <t>invention of vaccination</t>
   </si>
   <si>
@@ -1450,27 +1332,9 @@
     <t>first use of modern paper</t>
   </si>
   <si>
-    <t>Unification of China</t>
-  </si>
-  <si>
-    <t>Rule of Roman Emperor Constantine</t>
-  </si>
-  <si>
-    <t>Fall of Roman Empire</t>
-  </si>
-  <si>
-    <t>Dicsovery of America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Execution of Charles I </t>
-  </si>
-  <si>
     <t>Declaration of America Independence</t>
   </si>
   <si>
-    <t>Begin of Civil war</t>
-  </si>
-  <si>
     <t>Beginning of World War I</t>
   </si>
   <si>
@@ -1957,9 +1821,6 @@
     <t>pomegranates</t>
   </si>
   <si>
-    <t>coconuts</t>
-  </si>
-  <si>
     <t>eggplants</t>
   </si>
   <si>
@@ -2078,6 +1939,567 @@
   </si>
   <si>
     <t>surface area</t>
+  </si>
+  <si>
+    <t>First artificial satellite invention</t>
+  </si>
+  <si>
+    <t>Yuri Gagarin becomes first space men</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Buying ice cream</t>
+  </si>
+  <si>
+    <t>General_1</t>
+  </si>
+  <si>
+    <t>Melting of ice cream begins</t>
+  </si>
+  <si>
+    <t>Ice cream melted</t>
+  </si>
+  <si>
+    <t>Get some fresh dough</t>
+  </si>
+  <si>
+    <t>Roll the dough into flat circle</t>
+  </si>
+  <si>
+    <t>Cook the pizza</t>
+  </si>
+  <si>
+    <t>Cut the cooked pizza to slices</t>
+  </si>
+  <si>
+    <t>Add some pizza toppings before eating</t>
+  </si>
+  <si>
+    <t>Put cheese on pizza</t>
+  </si>
+  <si>
+    <t>Recipe_1</t>
+  </si>
+  <si>
+    <t>Mixing all the ingredients</t>
+  </si>
+  <si>
+    <t>Putting the pie in the oven to bake</t>
+  </si>
+  <si>
+    <t>Taking the pie out of oven</t>
+  </si>
+  <si>
+    <t>Recipe_2</t>
+  </si>
+  <si>
+    <t>Eat the pie</t>
+  </si>
+  <si>
+    <t>General_2</t>
+  </si>
+  <si>
+    <t>Taking out the butter and jam from refrigeration</t>
+  </si>
+  <si>
+    <t>Applying butter and jam on bread</t>
+  </si>
+  <si>
+    <t>Making a sandwich</t>
+  </si>
+  <si>
+    <t>Eating the bread</t>
+  </si>
+  <si>
+    <t>General_3</t>
+  </si>
+  <si>
+    <t>Planning design for construction of building</t>
+  </si>
+  <si>
+    <t>Marking layout</t>
+  </si>
+  <si>
+    <t>Excavation of the site</t>
+  </si>
+  <si>
+    <t>Compacting the ground</t>
+  </si>
+  <si>
+    <t>Laying PCC</t>
+  </si>
+  <si>
+    <t>Footing reinforcement</t>
+  </si>
+  <si>
+    <t>Shuttering</t>
+  </si>
+  <si>
+    <t>Footing Concrete</t>
+  </si>
+  <si>
+    <t>Column casting</t>
+  </si>
+  <si>
+    <t>Construction of walls</t>
+  </si>
+  <si>
+    <t>Roofing</t>
+  </si>
+  <si>
+    <t>Plastering work</t>
+  </si>
+  <si>
+    <t>Tiles laying</t>
+  </si>
+  <si>
+    <t>Fixing of doors and windows</t>
+  </si>
+  <si>
+    <t>Painting</t>
+  </si>
+  <si>
+    <t>House warming</t>
+  </si>
+  <si>
+    <t>Waking up from the bed</t>
+  </si>
+  <si>
+    <t>Taking shower</t>
+  </si>
+  <si>
+    <t>Off to school</t>
+  </si>
+  <si>
+    <t>Back from the school</t>
+  </si>
+  <si>
+    <t>General_4</t>
+  </si>
+  <si>
+    <t>Boiling water</t>
+  </si>
+  <si>
+    <t>Serving water in a cup</t>
+  </si>
+  <si>
+    <t>Putting the teabag in hot water</t>
+  </si>
+  <si>
+    <t>Adding sugar and milk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding a biscuit and enjoying it </t>
+  </si>
+  <si>
+    <t>General_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You were born </t>
+  </si>
+  <si>
+    <t>You learned to walk</t>
+  </si>
+  <si>
+    <t>You started kindergarten</t>
+  </si>
+  <si>
+    <t>You started third grade</t>
+  </si>
+  <si>
+    <t>You graduated from the college</t>
+  </si>
+  <si>
+    <t>Today's date</t>
+  </si>
+  <si>
+    <t>General_6</t>
+  </si>
+  <si>
+    <t>Defining requirements</t>
+  </si>
+  <si>
+    <t>Software development</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Operations and Maintenance</t>
+  </si>
+  <si>
+    <t>Planning phase of project</t>
+  </si>
+  <si>
+    <t>General_7</t>
+  </si>
+  <si>
+    <t>Butterfly lays eggs</t>
+  </si>
+  <si>
+    <t>Caterpillar is evolved</t>
+  </si>
+  <si>
+    <t>Cocoon formed with pupa</t>
+  </si>
+  <si>
+    <t>Pupa turns into butterfly</t>
+  </si>
+  <si>
+    <t>Butterfly leaves coccon</t>
+  </si>
+  <si>
+    <t>Turning into adult butterfly</t>
+  </si>
+  <si>
+    <t>General_8</t>
+  </si>
+  <si>
+    <t>History_1</t>
+  </si>
+  <si>
+    <t>History_2</t>
+  </si>
+  <si>
+    <t>Neil Armstrong becomes first man to land on moon</t>
+  </si>
+  <si>
+    <t>Invention of smart phone</t>
+  </si>
+  <si>
+    <t>Invention_1</t>
+  </si>
+  <si>
+    <t>Invention_2</t>
+  </si>
+  <si>
+    <t>Columbus discovered America</t>
+  </si>
+  <si>
+    <t>Constitution of Unites States formed</t>
+  </si>
+  <si>
+    <t>History_3</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>forkful</t>
+  </si>
+  <si>
+    <t>spoonful</t>
+  </si>
+  <si>
+    <t>teacupful</t>
+  </si>
+  <si>
+    <t>palmful</t>
+  </si>
+  <si>
+    <t>mouthful</t>
+  </si>
+  <si>
+    <t>scoopful</t>
+  </si>
+  <si>
+    <t>bowlful</t>
+  </si>
+  <si>
+    <t>pocketful</t>
+  </si>
+  <si>
+    <t>glassful</t>
+  </si>
+  <si>
+    <t>bottleful</t>
+  </si>
+  <si>
+    <t>tumblerful</t>
+  </si>
+  <si>
+    <t>mugful</t>
+  </si>
+  <si>
+    <t>capful</t>
+  </si>
+  <si>
+    <t>hatful</t>
+  </si>
+  <si>
+    <t>jugful</t>
+  </si>
+  <si>
+    <t>sacksful</t>
+  </si>
+  <si>
+    <t>plateful</t>
+  </si>
+  <si>
+    <t>trayful</t>
+  </si>
+  <si>
+    <t>platterful</t>
+  </si>
+  <si>
+    <t>panful</t>
+  </si>
+  <si>
+    <t>trunkful</t>
+  </si>
+  <si>
+    <t>dishful</t>
+  </si>
+  <si>
+    <t>pipeful</t>
+  </si>
+  <si>
+    <t>potful</t>
+  </si>
+  <si>
+    <t>bagful</t>
+  </si>
+  <si>
+    <t>boxful</t>
+  </si>
+  <si>
+    <t>tubful</t>
+  </si>
+  <si>
+    <t>tableful</t>
+  </si>
+  <si>
+    <t>rackful</t>
+  </si>
+  <si>
+    <t>cageful</t>
+  </si>
+  <si>
+    <t>shelfful</t>
+  </si>
+  <si>
+    <t>carful</t>
+  </si>
+  <si>
+    <t>kitchenful</t>
+  </si>
+  <si>
+    <t>roomful</t>
+  </si>
+  <si>
+    <t>quiver</t>
+  </si>
+  <si>
+    <t>arrows</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>mountains</t>
+  </si>
+  <si>
+    <t>formed</t>
+  </si>
+  <si>
+    <t>ream</t>
+  </si>
+  <si>
+    <t>placed</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>clubs</t>
+  </si>
+  <si>
+    <t>flight</t>
+  </si>
+  <si>
+    <t>birds</t>
+  </si>
+  <si>
+    <t>pearls</t>
+  </si>
+  <si>
+    <t>added</t>
+  </si>
+  <si>
+    <t>crowd</t>
+  </si>
+  <si>
+    <t>gang</t>
+  </si>
+  <si>
+    <t>theives</t>
+  </si>
+  <si>
+    <t>pride</t>
+  </si>
+  <si>
+    <t>lions</t>
+  </si>
+  <si>
+    <t>whales</t>
+  </si>
+  <si>
+    <t>crew</t>
+  </si>
+  <si>
+    <t>sailormen</t>
+  </si>
+  <si>
+    <t>comb</t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t>horde</t>
+  </si>
+  <si>
+    <t>savages</t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>chest</t>
+  </si>
+  <si>
+    <t>drawers</t>
+  </si>
+  <si>
+    <t>nest</t>
+  </si>
+  <si>
+    <t>mice</t>
+  </si>
+  <si>
+    <t>troop</t>
+  </si>
+  <si>
+    <t>scouts</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>caravan</t>
+  </si>
+  <si>
+    <t>gypsies</t>
+  </si>
+  <si>
+    <t>crocks</t>
+  </si>
+  <si>
+    <t>choir</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t>wolves</t>
+  </si>
+  <si>
+    <t>wild animals</t>
+  </si>
+  <si>
+    <t>posse</t>
+  </si>
+  <si>
+    <t>policemen</t>
+  </si>
+  <si>
+    <t>regimen</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>plague</t>
+  </si>
+  <si>
+    <t>locusts</t>
+  </si>
+  <si>
+    <t>patrol</t>
+  </si>
+  <si>
+    <t>bale</t>
+  </si>
+  <si>
+    <t>cotton balls</t>
+  </si>
+  <si>
+    <t>tribe</t>
+  </si>
+  <si>
+    <t>natives</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>catalogue</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>fill the basket</t>
+  </si>
+  <si>
+    <t>fill the can</t>
+  </si>
+  <si>
+    <t>sloth</t>
+  </si>
+  <si>
+    <t>bears</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>hive</t>
+  </si>
+  <si>
+    <t>bees</t>
+  </si>
+  <si>
+    <t>prisoners</t>
+  </si>
+  <si>
+    <t>ants</t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>fish</t>
   </si>
 </sst>
 </file>
@@ -2125,7 +2547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2138,6 +2560,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2456,7 +2882,7 @@
   <dimension ref="A1:A55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2466,277 +2892,277 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2746,161 +3172,218 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB60850-5700-4B3D-8952-38B65F3D898E}">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DE3CE5-D018-4CED-BD0A-C8974AEB9A7F}">
+  <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>650</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>652</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>653</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>654</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>655</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>657</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>658</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
         <v>576</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>659</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -2909,231 +3392,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DE3CE5-D018-4CED-BD0A-C8974AEB9A7F}">
-  <dimension ref="A1:A41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BA7193-85AA-46AB-A5BE-C7B323940BEA}">
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>621</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BA7193-85AA-46AB-A5BE-C7B323940BEA}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3143,57 +3406,508 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>748</v>
+      </c>
+      <c r="B6" t="s">
+        <v>749</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B7" t="s">
+        <v>751</v>
+      </c>
+      <c r="C7" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>753</v>
+      </c>
+      <c r="B8" t="s">
+        <v>556</v>
+      </c>
+      <c r="C8" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>755</v>
+      </c>
+      <c r="B9" t="s">
+        <v>756</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>757</v>
+      </c>
+      <c r="B10" t="s">
+        <v>758</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>573</v>
+      </c>
+      <c r="B11" t="s">
+        <v>759</v>
+      </c>
+      <c r="C11" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>761</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>762</v>
+      </c>
+      <c r="B13" t="s">
+        <v>763</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>764</v>
+      </c>
+      <c r="B14" t="s">
+        <v>765</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>482</v>
+      </c>
+      <c r="B15" t="s">
+        <v>766</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>767</v>
+      </c>
+      <c r="B16" t="s">
+        <v>768</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>769</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>770</v>
+      </c>
+      <c r="B18" t="s">
+        <v>525</v>
+      </c>
+      <c r="C18" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>771</v>
+      </c>
+      <c r="B19" t="s">
+        <v>772</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>773</v>
+      </c>
+      <c r="B20" t="s">
+        <v>774</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>775</v>
+      </c>
+      <c r="B21" t="s">
+        <v>776</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>777</v>
+      </c>
+      <c r="B22" t="s">
+        <v>778</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>779</v>
+      </c>
+      <c r="B23" t="s">
+        <v>780</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>535</v>
+      </c>
+      <c r="C24" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>781</v>
+      </c>
+      <c r="B25" t="s">
+        <v>782</v>
+      </c>
+      <c r="C25" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>783</v>
+      </c>
+      <c r="B26" t="s">
+        <v>784</v>
+      </c>
+      <c r="C26" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>785</v>
+      </c>
+      <c r="C27" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>786</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>787</v>
+      </c>
+      <c r="B29" t="s">
+        <v>788</v>
+      </c>
+      <c r="C29" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>498</v>
+      </c>
+      <c r="B30" t="s">
+        <v>789</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>790</v>
+      </c>
+      <c r="B31" t="s">
+        <v>791</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>792</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>793</v>
+      </c>
+      <c r="B33" t="s">
+        <v>285</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>794</v>
+      </c>
+      <c r="B34" t="s">
+        <v>795</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>796</v>
+      </c>
+      <c r="B35" t="s">
+        <v>791</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>797</v>
+      </c>
+      <c r="B36" t="s">
+        <v>798</v>
+      </c>
+      <c r="C36" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>799</v>
+      </c>
+      <c r="B37" t="s">
+        <v>800</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>801</v>
+      </c>
+      <c r="B38" t="s">
+        <v>280</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>802</v>
+      </c>
+      <c r="B39" t="s">
+        <v>283</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>803</v>
+      </c>
+      <c r="B40" t="s">
+        <v>804</v>
+      </c>
+      <c r="C40" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>808</v>
+      </c>
+      <c r="B41" t="s">
+        <v>809</v>
+      </c>
+      <c r="C41" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>810</v>
+      </c>
+      <c r="B42" t="s">
+        <v>294</v>
+      </c>
+      <c r="C42" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>811</v>
+      </c>
+      <c r="B43" t="s">
+        <v>812</v>
+      </c>
+      <c r="C43" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>762</v>
+      </c>
+      <c r="B44" t="s">
+        <v>813</v>
+      </c>
+      <c r="C44" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>814</v>
+      </c>
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>815</v>
+      </c>
+      <c r="B46" t="s">
+        <v>816</v>
+      </c>
+      <c r="C46" t="s">
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -3201,12 +3915,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8CDC03-72C4-45D8-8BF0-EA49C37C1AD1}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3217,362 +3931,354 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>715</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>716</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>622</v>
-      </c>
       <c r="B6" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>95</v>
+      <c r="A7" s="12" t="s">
+        <v>717</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>96</v>
+      <c r="A8" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>625</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>97</v>
+      <c r="A9" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>626</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>98</v>
+      <c r="A10" s="12" t="s">
+        <v>718</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>554</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>57</v>
+      <c r="A11" s="12" t="s">
+        <v>719</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>555</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="12" t="s">
+        <v>720</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>90</v>
-      </c>
       <c r="B44" s="10" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>648</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -3581,12 +4287,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE37D33A-215E-4B4C-AE2D-4F11FF092141}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3597,283 +4303,283 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>102</v>
+      <c r="A1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>673</v>
+        <v>627</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>107</v>
+      <c r="A2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>674</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="D3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="D7" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="D8" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="D9" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="D10" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="D11" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="D14" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="D15" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="D16" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="D3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>661</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="D7" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="D8" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>663</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="D9" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>553</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>664</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>665</v>
-      </c>
-      <c r="D10" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>572</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>666</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>667</v>
-      </c>
-      <c r="D11" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>573</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>557</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>599</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="D14" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>576</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>664</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>665</v>
-      </c>
-      <c r="D15" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>627</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>666</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>667</v>
-      </c>
-      <c r="D16" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>669</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>666</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>667</v>
+      <c r="B17" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>621</v>
       </c>
       <c r="D17" t="s">
-        <v>674</v>
+        <v>628</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>585</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>115</v>
+      <c r="A18" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>674</v>
+        <v>628</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>670</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>115</v>
+      <c r="A19" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>674</v>
+        <v>628</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>671</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>672</v>
+      <c r="A20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>626</v>
       </c>
       <c r="D20" t="s">
-        <v>674</v>
+        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -3883,267 +4589,262 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2C3710-8C2F-4870-9B3B-7B18DE910BA0}">
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -4163,752 +4864,752 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4918,241 +5619,939 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7129111B-DB4A-4002-A458-884EB81A24E5}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="B2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="C2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B3">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>467</v>
-      </c>
-      <c r="B4">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>468</v>
-      </c>
-      <c r="B5">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="B6">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>469</v>
-      </c>
-      <c r="B7">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>470</v>
-      </c>
-      <c r="B8">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>471</v>
-      </c>
-      <c r="B9">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>459</v>
-      </c>
-      <c r="B10">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B11">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>472</v>
-      </c>
-      <c r="B12">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>456</v>
-      </c>
-      <c r="B13">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>454</v>
-      </c>
-      <c r="B14">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>455</v>
-      </c>
-      <c r="B15">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>462</v>
-      </c>
-      <c r="B16">
-        <v>1892</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>630</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>457</v>
-      </c>
-      <c r="B17">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>461</v>
-      </c>
-      <c r="B18">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>473</v>
-      </c>
-      <c r="B19">
-        <v>1914</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>474</v>
-      </c>
-      <c r="B20">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>460</v>
-      </c>
-      <c r="B21">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>475</v>
-      </c>
-      <c r="B22">
-        <v>1939</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>476</v>
-      </c>
-      <c r="B23">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>458</v>
-      </c>
-      <c r="B24">
-        <v>1962</v>
+        <v>633</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>635</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>636</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>637</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>638</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>639</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>640</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>641</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>644</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>645</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>646</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>648</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>650</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>651</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>652</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>653</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>655</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="C41" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>656</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>657</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>658</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>659</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>660</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>661</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>662</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>663</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>664</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>665</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>666</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>668</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>667</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>669</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>670</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>671</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="C57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>672</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>673</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>674</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>676</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>677</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>678</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>679</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>680</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>682</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="C66" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>683</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>684</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>685</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>686</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>687</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>694</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="C72" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>689</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>690</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>691</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>692</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>693</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>696</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>697</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>698</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>699</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>700</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>701</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>713</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{0783D443-25D1-4274-93C9-0AB47D9C6B49}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B24">
-      <sortCondition ref="B1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:B1" xr:uid="{0783D443-25D1-4274-93C9-0AB47D9C6B49}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F06616B-11D7-4D5D-93AB-8505052297C9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3381D2-F69E-42C5-8914-972F4465BEEE}">
   <dimension ref="A1:A99"/>
   <sheetViews>
@@ -5167,497 +6566,497 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>552</v>
+        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>380</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>396</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>397</v>
+        <v>360</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>447</v>
+        <v>410</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>401</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>402</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>408</v>
+        <v>371</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>409</v>
+        <v>372</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>411</v>
+        <v>374</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>420</v>
+        <v>383</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>424</v>
+        <v>387</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>449</v>
+        <v>412</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>448</v>
+        <v>411</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>450</v>
+        <v>413</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>425</v>
+        <v>388</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>428</v>
+        <v>391</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>429</v>
+        <v>392</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>430</v>
+        <v>393</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>451</v>
+        <v>414</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>431</v>
+        <v>394</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>435</v>
+        <v>398</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>438</v>
+        <v>401</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>442</v>
+        <v>405</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>444</v>
+        <v>407</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>445</v>
+        <v>408</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>446</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -5665,11 +7064,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F9667C-0514-4C13-9250-00A285BC1F02}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
@@ -5677,434 +7076,434 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>480</v>
+        <v>435</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>483</v>
+        <v>438</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>484</v>
+        <v>439</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>485</v>
+        <v>440</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>486</v>
+        <v>441</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>487</v>
+        <v>442</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>488</v>
+        <v>443</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>490</v>
+        <v>445</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>491</v>
+        <v>446</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>492</v>
+        <v>447</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>493</v>
+        <v>448</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>494</v>
+        <v>449</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>495</v>
+        <v>450</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>496</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>497</v>
+        <v>452</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>498</v>
+        <v>453</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>499</v>
+        <v>454</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>502</v>
+        <v>457</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>503</v>
+        <v>458</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>504</v>
+        <v>459</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>506</v>
+        <v>461</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>507</v>
+        <v>462</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>508</v>
+        <v>463</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>509</v>
+        <v>464</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>510</v>
+        <v>465</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>511</v>
+        <v>466</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>512</v>
+        <v>467</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>513</v>
+        <v>468</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>514</v>
+        <v>469</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>515</v>
+        <v>470</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>516</v>
+        <v>471</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>517</v>
+        <v>472</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>518</v>
+        <v>473</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>519</v>
+        <v>474</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>520</v>
+        <v>475</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>521</v>
+        <v>476</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>522</v>
+        <v>477</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>523</v>
+        <v>478</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>524</v>
+        <v>479</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -6112,7 +7511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C10EC01-37F1-436A-9297-5A7B21D9AA20}">
   <dimension ref="A1:A30"/>
   <sheetViews>
@@ -6127,152 +7526,152 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>525</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>526</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>527</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>528</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>529</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>530</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>531</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>532</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>533</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>534</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>535</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>536</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>537</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>538</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>539</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>540</v>
+        <v>495</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>541</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>542</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>543</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>544</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>545</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>546</v>
+        <v>501</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>547</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>548</v>
+        <v>503</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>549</v>
+        <v>504</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>550</v>
+        <v>505</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>551</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -6280,7 +7679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155F03EE-764F-4670-AEC3-62AE59174FFE}">
   <dimension ref="A1:B50"/>
   <sheetViews>
@@ -6295,402 +7694,725 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>553</v>
+        <v>508</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>554</v>
+        <v>509</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>555</v>
+        <v>510</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>556</v>
+        <v>511</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>553</v>
+        <v>508</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>557</v>
+        <v>512</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>558</v>
+        <v>513</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>559</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>560</v>
+        <v>515</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>559</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>558</v>
+        <v>513</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>561</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>554</v>
+        <v>509</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>649</v>
+        <v>603</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>563</v>
+        <v>518</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>564</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>563</v>
+        <v>518</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>565</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>563</v>
+        <v>518</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>566</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>563</v>
+        <v>518</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>567</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>563</v>
+        <v>518</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>568</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>563</v>
+        <v>518</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>569</v>
+        <v>524</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>570</v>
+        <v>525</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>571</v>
+        <v>526</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>557</v>
+        <v>512</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>572</v>
+        <v>527</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>573</v>
+        <v>528</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>574</v>
+        <v>529</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>575</v>
+        <v>530</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>576</v>
+        <v>531</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>577</v>
+        <v>532</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>572</v>
+        <v>527</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>573</v>
+        <v>528</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>574</v>
+        <v>529</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>575</v>
+        <v>530</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>576</v>
+        <v>531</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>577</v>
+        <v>532</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>578</v>
+        <v>533</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>579</v>
+        <v>534</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>580</v>
+        <v>535</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>579</v>
+        <v>534</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>580</v>
+        <v>535</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>560</v>
+        <v>515</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>571</v>
+        <v>526</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>581</v>
+        <v>536</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>561</v>
+        <v>516</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>582</v>
+        <v>537</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>561</v>
+        <v>516</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>583</v>
+        <v>538</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>584</v>
+        <v>539</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>561</v>
+        <v>516</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>585</v>
+        <v>540</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>571</v>
+        <v>526</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>586</v>
+        <v>541</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB60850-5700-4B3D-8952-38B65F3D898E}">
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>807</v>
       </c>
     </row>
   </sheetData>
